--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_5_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_5_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.506042327899365, 66.40325457448472]</t>
+          <t>[60.48182471966794, 66.42747218271614]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.832647366382226, 51.94834232142724]</t>
+          <t>[47.83340699538164, 51.94758269242783]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[59.63974517106304, 68.26759430892378]</t>
+          <t>[59.61900046690208, 68.28833901308474]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.98938436296512, 52.70991471078552]</t>
+          <t>[47.988484819676934, 52.7108142540737]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_5_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_5_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.48182471966794, 66.42747218271614]</t>
+          <t>[60.525314242789264, 66.38398265959482]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.83340699538164, 51.94758269242783]</t>
+          <t>[47.832480943947914, 51.94850874386155]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[59.61900046690208, 68.28833901308474]</t>
+          <t>[59.70932719832946, 68.19801228165736]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.988484819676934, 52.7108142540737]</t>
+          <t>[47.98785530509419, 52.711443768656444]</t>
         </is>
       </c>
       <c r="U3" t="n">
